--- a/US.EFACFA_ShortForm_Development_2021_0601.xlsx
+++ b/US.EFACFA_ShortForm_Development_2021_0601.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WeiKuang\Desktop\Stanford Work\WELL\Project\David_FactorAnalysis\Code\1_US_CFA\WELL_Score_function\WELL_Score_Function\version_2021_0601\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF032E-1046-41D8-A04A-8A4F9A5D87DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75353C44-F070-4DEC-B964-39C20DCCB1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US EFA.CFA 7f 42i" sheetId="1" r:id="rId1"/>
-    <sheet name="US EFA.CFA 7f 21 items" sheetId="3" r:id="rId2"/>
-    <sheet name="US EFA.CFA 7f 7items" sheetId="4" r:id="rId3"/>
+    <sheet name="US EFA.CFA 7f 21+1 items" sheetId="3" r:id="rId2"/>
+    <sheet name="US EFA.CFA 7f 7+1items" sheetId="4" r:id="rId3"/>
     <sheet name="Theory_Domain" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Theory_Domain!$B$1:$K$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US EFA.CFA 7f 21 items'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US EFA.CFA 7f 21+1 items'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US EFA.CFA 7f 42i'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'US EFA.CFA 7f 7items'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'US EFA.CFA 7f 7+1items'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="171">
   <si>
     <t>Item</t>
   </si>
@@ -618,6 +618,15 @@
       </rPr>
       <t xml:space="preserve">'0' needs the reverse coding! </t>
     </r>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Added by Ann - 2021-06-07.</t>
   </si>
 </sst>
 </file>
@@ -744,7 +753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +781,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4E5C68"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1170,6 +1185,22 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2835,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B8FDEA-AE50-4DFA-A618-1E1E2D1F0922}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,33 +2920,33 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
         <v>53</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="17">
         <v>0.76100000000000001</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="79">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="57">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="80">
+        <v>5</v>
+      </c>
+      <c r="K2" s="62" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2951,33 +2982,33 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>0.70499999999999996</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="64">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="57">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="58">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2991,24 +3022,24 @@
       <c r="C5" s="18">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="57">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="80">
+        <v>1</v>
+      </c>
+      <c r="I5" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="57">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="80">
+        <v>5</v>
+      </c>
+      <c r="K5" s="62" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3044,33 +3075,33 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>41</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="57">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="58">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="57">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="58">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3084,24 +3115,24 @@
       <c r="C8" s="18">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="57">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="80">
+        <v>1</v>
+      </c>
+      <c r="I8" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="57">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="80">
+        <v>5</v>
+      </c>
+      <c r="K8" s="62" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3137,33 +3168,33 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="12">
         <v>34</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="57">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="58">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="57">
-        <v>5</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="58">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3177,24 +3208,24 @@
       <c r="C11" s="18">
         <v>0.877</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="57">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="80">
+        <v>1</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="57">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="80">
+        <v>5</v>
+      </c>
+      <c r="K11" s="62" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3239,24 +3270,24 @@
       <c r="C13" s="13">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="57">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="58">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="57">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="58">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3270,24 +3301,24 @@
       <c r="C14" s="18">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="57">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="80">
+        <v>1</v>
+      </c>
+      <c r="I14" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="57">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="80">
+        <v>5</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3332,24 +3363,24 @@
       <c r="C16" s="13">
         <v>0.57299999999999995</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="57">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="58">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="57">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="58">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3363,24 +3394,24 @@
       <c r="C17" s="18">
         <v>0.85799999999999998</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="57">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="80">
+        <v>1</v>
+      </c>
+      <c r="I17" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="57">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="80">
+        <v>5</v>
+      </c>
+      <c r="K17" s="62" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3425,24 +3456,24 @@
       <c r="C19" s="13">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="57">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="58">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="57">
-        <v>5</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="58">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3456,24 +3487,24 @@
       <c r="C20" s="18">
         <v>0.89500000000000002</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="57">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="80">
+        <v>1</v>
+      </c>
+      <c r="I20" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="57">
-        <v>5</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="80">
+        <v>5</v>
+      </c>
+      <c r="K20" s="62" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3537,6 +3568,37 @@
       </c>
       <c r="K22" s="5" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="82">
+        <v>13</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="83">
+        <v>1</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="83">
+        <v>6</v>
+      </c>
+      <c r="K23" s="81" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3552,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84106978-42B8-42BA-9BA1-620606369383}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,6 +3864,35 @@
         <v>105</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="82">
+        <v>13</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="83">
+        <v>6</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{F5066F1A-9718-4E48-991F-BA29AABB6E05}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
@@ -3818,7 +3909,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
